--- a/biology/Botanique/Cephalaria/Cephalaria.xlsx
+++ b/biology/Botanique/Cephalaria/Cephalaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalaria est un genre végétal qui comporte environ 65 espèces de plantes à fleurs. Il appartient à la famille des Caprifoliaceae selon la classification phylogénétique (APG IV), et à celle des Dipsacaceae selon la classification classique de Cronquist. Ce genre est endémique dans l'Europe du Sud, à l'ouest et au centre de l'Asie et au nord et au sud de l'Afrique.
 Les plantes du genre Cephalaria sont des herbacées annuelles ou pérennes. Elles mesurent entre 80 cm et 2 m.
@@ -513,9 +525,11 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalaria alpina (L.) Roem. &amp; Schult.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cephalaria alpina (L.) Roem. &amp; Schult.
 Cephalaria ambrosioides (Sibth. &amp; Sm.) Roem. &amp; Schult.
 Cephalaria aristata C.Koch
 Cephalaria coriacea (Willd.) Roem. &amp; Schult. ex Steud.
@@ -534,9 +548,43 @@
 Cephalaria syriaca (L.) Roem. &amp; Schult.
 Cephalaria tchihatchewii Boiss.
 Cephalaria transylvanica (L.) Roem. &amp; Schult.
-Cephalaria uralensis (Murray) Roem. &amp; Schult.
-Culture et emploi
-Certaines espèces de Cephalaria sont cultivées comme plantes ornementales dans les jardins. L'espèce la plus populaire est C. gigantea, une espèce pérenne du Caucase qui peut atteindre 2 m de haut, particulièrement appréciée en raison de la vigueur de croissance, de son feuillage vert sombre et de ses fleurs jaunes (Huxley 1992).
+Cephalaria uralensis (Murray) Roem. &amp; Schult.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cephalaria</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalaria</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Culture et emploi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de Cephalaria sont cultivées comme plantes ornementales dans les jardins. L'espèce la plus populaire est C. gigantea, une espèce pérenne du Caucase qui peut atteindre 2 m de haut, particulièrement appréciée en raison de la vigueur de croissance, de son feuillage vert sombre et de ses fleurs jaunes (Huxley 1992).
 </t>
         </is>
       </c>
